--- a/mosol2.xlsx
+++ b/mosol2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\11111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444103DF-8C4D-4027-A48F-9CFC76C71084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A597D76D-F1B8-452C-9896-ED47910231C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C82E1ABC-5296-4397-9257-C09F1F301CFF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="388">
   <si>
     <t>Fecha Orden</t>
   </si>
@@ -1187,6 +1187,12 @@
   </si>
   <si>
     <t>A0.</t>
+  </si>
+  <si>
+    <t>CC3.</t>
+  </si>
+  <si>
+    <t>CC4.</t>
   </si>
 </sst>
 </file>
@@ -1663,9 +1669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E0D287-5DF7-4CBA-B759-AAFADF1A23E2}">
   <dimension ref="A1:BE92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BA1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomLeft" activeCell="BF7" sqref="BF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5325,6 +5331,12 @@
       <c r="D1" s="1" t="s">
         <v>364</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="Q1" s="1" t="s">
         <v>365</v>
       </c>
